--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF6CB7-AA1D-4074-BC5D-F62C9417FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567ABF26-8136-43D7-92A4-714DA3D8F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13192204-1383-4291-87F7-BB55864162E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B377A50-0466-44DC-B213-573D521A135A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DD7180-FCF9-4570-8F35-64389E45E4E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797EF6A-40B4-4BF8-82D7-D38F950FE68B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f20_18RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567ABF26-8136-43D7-92A4-714DA3D8F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB383319-07B7-458F-A046-2B243C15F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B377A50-0466-44DC-B213-573D521A135A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{CB527618-82BA-4D11-9D0B-28F1CB79B1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C797EF6A-40B4-4BF8-82D7-D38F950FE68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAA1F9F-9DAE-4DF6-9991-B83DA8646C63}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB383319-07B7-458F-A046-2B243C15F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EA47F-621D-4679-BDE8-F343B222A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{CB527618-82BA-4D11-9D0B-28F1CB79B1AA}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{03A879A5-D3B9-4C52-9A36-62F66BDDE74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAA1F9F-9DAE-4DF6-9991-B83DA8646C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C006F78-6FB1-4D10-B70F-31841209205D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
